--- a/team_specific_matrix/North American_A.xlsx
+++ b/team_specific_matrix/North American_A.xlsx
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2727272727272727</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6363636363636364</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4285714285714285</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5714285714285714</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3636363636363636</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1818181818181818</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.1818181818181818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -976,13 +976,13 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04504504504504504</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.01801801801801802</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2522522522522522</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.1261261261261261</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2162162162162162</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>0.1261261261261261</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>0.2162162162162162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1289,10 +1289,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09523809523809523</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.4761904761904762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02083333333333333</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1407,10 +1407,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4545454545454545</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.04545454545454546</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04545454545454546</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.4545454545454545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0425531914893617</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5531914893617021</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2340425531914894</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.0425531914893617</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1276595744680851</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
